--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_7_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_7_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1948461.17120747</v>
+        <v>-1951376.768299798</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10077562.50365403</v>
+        <v>10077562.50365404</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>111.5898272927298</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,10 +668,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>264.2125949262254</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -719,10 +719,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>290.1262884274132</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,10 +826,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>89.74751674279179</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>240.7627010605358</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>351.6929120882855</v>
+        <v>239.0563475847725</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>134.0896134541867</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>55.90923991536302</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>196.7704030399088</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1148,7 +1148,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>270.834013535437</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>126.7632886126197</v>
+        <v>23.32897990642486</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,25 +1333,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>381.1967972861383</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>353.1459972433406</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>89.53408223745106</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
-        <v>140.4539897919539</v>
+        <v>64.44601915223804</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569554</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128548</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1768,7 +1768,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>157.0680868942517</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012177</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>249.0584607366372</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>19.88691958258317</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>100.4429877184271</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2245,16 +2245,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>46.15319674220996</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,10 +2530,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>177.9413471369465</v>
       </c>
     </row>
     <row r="26">
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2719,7 +2719,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545299</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F28" t="n">
         <v>121.1364005308915</v>
@@ -2731,7 +2731,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652614</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,13 +2950,13 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065884</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545298</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2968,7 +2968,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3320,10 +3320,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808193</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="38">
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,7 +3898,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
         <v>124.3308255261727</v>
@@ -3907,16 +3907,16 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652583</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,7 +4138,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E46" t="n">
         <v>122.1493151545295</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1369.426717132083</v>
+        <v>1218.344318046659</v>
       </c>
       <c r="C2" t="n">
-        <v>1369.426717132083</v>
+        <v>1218.344318046659</v>
       </c>
       <c r="D2" t="n">
-        <v>1011.161018525332</v>
+        <v>860.0786194399084</v>
       </c>
       <c r="E2" t="n">
-        <v>625.3727659270879</v>
+        <v>474.2903668416641</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W2" t="n">
-        <v>1369.426717132083</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X2" t="n">
-        <v>1369.426717132083</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y2" t="n">
-        <v>1369.426717132083</v>
+        <v>1331.061315312042</v>
       </c>
     </row>
     <row r="3">
@@ -4398,34 +4398,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>200.8329293182748</v>
+        <v>359.1897464970883</v>
       </c>
       <c r="C4" t="n">
-        <v>200.8329293182748</v>
+        <v>190.2535635691814</v>
       </c>
       <c r="D4" t="n">
-        <v>200.8329293182748</v>
+        <v>190.2535635691814</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>190.2535635691814</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2535635691814</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600564</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="V4" t="n">
-        <v>444.0275768541695</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="W4" t="n">
-        <v>200.8329293182748</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="X4" t="n">
-        <v>200.8329293182748</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="Y4" t="n">
-        <v>200.8329293182748</v>
+        <v>359.1897464970883</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1512.612574238668</v>
+        <v>821.0691186598713</v>
       </c>
       <c r="C5" t="n">
-        <v>1512.612574238668</v>
+        <v>821.0691186598713</v>
       </c>
       <c r="D5" t="n">
-        <v>1154.346875631918</v>
+        <v>462.8034200531208</v>
       </c>
       <c r="E5" t="n">
-        <v>1154.346875631918</v>
+        <v>462.8034200531208</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W5" t="n">
-        <v>2289.351746278602</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="X5" t="n">
-        <v>2289.351746278602</v>
+        <v>1597.808290699805</v>
       </c>
       <c r="Y5" t="n">
-        <v>1899.21241430279</v>
+        <v>1207.668958723993</v>
       </c>
     </row>
     <row r="6">
@@ -4620,73 +4620,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4711,64 +4711,64 @@
         <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T7" t="n">
-        <v>671.6550044939465</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="U7" t="n">
-        <v>382.4813941485145</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="V7" t="n">
-        <v>382.4813941485145</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="W7" t="n">
-        <v>382.4813941485145</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="X7" t="n">
-        <v>382.4813941485145</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="Y7" t="n">
-        <v>382.4813941485145</v>
+        <v>336.2769833124028</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1138.210253911481</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="C8" t="n">
-        <v>1138.210253911481</v>
+        <v>1390.593246102217</v>
       </c>
       <c r="D8" t="n">
-        <v>1138.210253911481</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E8" t="n">
-        <v>752.4220013132367</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F8" t="n">
-        <v>341.4360965236291</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G8" t="n">
-        <v>327.5126924622201</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500978</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V8" t="n">
-        <v>1881.118241157407</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W8" t="n">
-        <v>1528.349585887293</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X8" t="n">
-        <v>1528.349585887293</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="Y8" t="n">
-        <v>1138.210253911481</v>
+        <v>1759.555763042629</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641992</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>181.9867076916975</v>
+        <v>77.50760798847037</v>
       </c>
       <c r="C10" t="n">
-        <v>181.9867076916975</v>
+        <v>77.50760798847037</v>
       </c>
       <c r="D10" t="n">
-        <v>181.9867076916975</v>
+        <v>77.50760798847037</v>
       </c>
       <c r="E10" t="n">
-        <v>181.9867076916975</v>
+        <v>77.50760798847037</v>
       </c>
       <c r="F10" t="n">
-        <v>181.9867076916975</v>
+        <v>77.50760798847037</v>
       </c>
       <c r="G10" t="n">
-        <v>181.9867076916975</v>
+        <v>77.50760798847037</v>
       </c>
       <c r="H10" t="n">
-        <v>181.9867076916975</v>
+        <v>77.50760798847037</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T10" t="n">
-        <v>471.4038777286581</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U10" t="n">
-        <v>471.4038777286581</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V10" t="n">
-        <v>471.4038777286581</v>
+        <v>259.1560728187101</v>
       </c>
       <c r="W10" t="n">
-        <v>181.9867076916975</v>
+        <v>259.1560728187101</v>
       </c>
       <c r="X10" t="n">
-        <v>181.9867076916975</v>
+        <v>259.1560728187101</v>
       </c>
       <c r="Y10" t="n">
-        <v>181.9867076916975</v>
+        <v>259.1560728187101</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2316.676938649612</v>
+        <v>2318.229508727735</v>
       </c>
       <c r="C11" t="n">
-        <v>1947.7144217092</v>
+        <v>1949.266991787324</v>
       </c>
       <c r="D11" t="n">
         <v>1591.001293180573</v>
@@ -5045,22 +5045,22 @@
         <v>842.9429223347665</v>
       </c>
       <c r="L11" t="n">
-        <v>1511.709654113219</v>
+        <v>1462.462702840541</v>
       </c>
       <c r="M11" t="n">
-        <v>2232.714216052256</v>
+        <v>2183.467264779579</v>
       </c>
       <c r="N11" t="n">
-        <v>2969.999193969362</v>
+        <v>2920.752242696685</v>
       </c>
       <c r="O11" t="n">
-        <v>3652.861230428501</v>
+        <v>3603.614279155823</v>
       </c>
       <c r="P11" t="n">
-        <v>4201.167179115849</v>
+        <v>4151.920227843171</v>
       </c>
       <c r="Q11" t="n">
-        <v>4564.749365221855</v>
+        <v>4515.502413949178</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5127,10 +5127,10 @@
         <v>1062.705720206928</v>
       </c>
       <c r="M12" t="n">
-        <v>1281.539913781472</v>
+        <v>1062.705720206928</v>
       </c>
       <c r="N12" t="n">
-        <v>1903.635877180809</v>
+        <v>1684.801683606264</v>
       </c>
       <c r="O12" t="n">
         <v>1903.635877180809</v>
@@ -5188,7 +5188,7 @@
         <v>326.1278469160577</v>
       </c>
       <c r="G13" t="n">
-        <v>235.6893800095415</v>
+        <v>158.9136520906366</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5267,43 +5267,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192579</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111774</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.852361107586</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332391</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014782</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.89852635594</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5355,22 +5355,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756264</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468465</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962605</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589156</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1670.092171589156</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>551.354624631591</v>
+        <v>800.5007694647281</v>
       </c>
       <c r="C16" t="n">
-        <v>382.4184417036842</v>
+        <v>631.5645865368213</v>
       </c>
       <c r="D16" t="n">
-        <v>382.4184417036842</v>
+        <v>481.4479471244855</v>
       </c>
       <c r="E16" t="n">
-        <v>382.4184417036842</v>
+        <v>481.4479471244855</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>334.5579996265751</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038339</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797738</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853359</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580258</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832661</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487565</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510506</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U16" t="n">
-        <v>1725.886877746226</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V16" t="n">
-        <v>1471.202389540339</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W16" t="n">
-        <v>1181.785219503378</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X16" t="n">
-        <v>953.7956686053609</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y16" t="n">
-        <v>733.0030894618308</v>
+        <v>982.1492342949679</v>
       </c>
     </row>
     <row r="17">
@@ -5495,7 +5495,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5510,22 +5510,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,22 +5592,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>923.0670414349513</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>802.9288273958739</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C19" t="n">
-        <v>802.9288273958739</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D19" t="n">
-        <v>652.8121879835381</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E19" t="n">
-        <v>504.899094401145</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>336.9860575577204</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304622</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W19" t="n">
         <v>1433.359422267661</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.369871369644</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.5772922261136</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="20">
@@ -5726,46 +5726,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111706</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N21" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>550.637687073287</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2333.297989183966</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2333.297989183966</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2044.222762528164</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1789.538274322277</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1500.121104285317</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1272.131553387299</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -6066,19 +6066,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>923.0670414349511</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N24" t="n">
-        <v>1550.665004989558</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O24" t="n">
         <v>1896.176478190825</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1688.043910473548</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1460.05435957553</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6206,25 +6206,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6239,13 +6239,13 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6303,22 +6303,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>923.0670414349511</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P27" t="n">
         <v>2319.799627685893</v>
@@ -6364,25 +6364,25 @@
         <v>782.5512955656822</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345476</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H28" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384023</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K28" t="n">
         <v>483.825546038073</v>
@@ -6449,34 +6449,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.176478190825</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6598,10 +6598,10 @@
         <v>926.9575315319328</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E31" t="n">
         <v>533.5814564942655</v>
@@ -6619,7 +6619,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K31" t="n">
         <v>483.825546038073</v>
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,16 +6710,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1702.079034721979</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345476</v>
@@ -6853,7 +6853,7 @@
         <v>151.3734194384019</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>198.0944824954149</v>
@@ -6862,7 +6862,7 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6889,7 +6889,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7023,10 +7023,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N36" t="n">
-        <v>1670.092171589158</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O36" t="n">
         <v>2129.438138565707</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F37" t="n">
         <v>411.2214559580115</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7093,31 +7093,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
         <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q37" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547834</v>
@@ -7126,16 +7126,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7154,37 +7154,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319325</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7333,19 +7333,19 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
         <v>2496.057455973196</v>
@@ -7354,28 +7354,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7391,13 +7391,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,28 +7406,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7497,7 +7497,7 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N42" t="n">
         <v>2129.438138565707</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C43" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7567,13 +7567,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
         <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7597,7 +7597,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
         <v>1978.840049838286</v>
@@ -7637,25 +7637,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192508</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111707</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355937</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7804,10 +7804,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
         <v>898.2659412311323</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8310,10 +8310,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>275.0442842992664</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8693,7 +8693,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>49.74439522492673</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>49.74439522492656</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>6.480149750132114e-12</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>-5.184030404968261e-13</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9167,7 +9167,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>-6.476878173658049e-13</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10352,7 +10352,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>92.31523325487139</v>
+        <v>271.1440143707508</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22556,10 +22556,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -22595,10 +22595,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22607,10 +22607,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>59.11468028999985</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22765,13 +22765,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>45.76029727605524</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1.537044377342227</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.537044377342397</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>76.00797063971586</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>76.00797063971588</v>
       </c>
       <c r="I13" t="n">
         <v>81.80457674440903</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>8.456051398017166</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856559</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>37.12601365260696</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>125.5341284403481</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>65.0811505738417</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,10 +24175,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>134.8730892594346</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,10 +24418,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>40.6433062151483</v>
       </c>
     </row>
     <row r="26">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1336061.497243596</v>
+        <v>1336061.497243597</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1336061.497243597</v>
+        <v>1336061.497243596</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1336061.497243596</v>
+        <v>1336061.497243597</v>
       </c>
     </row>
     <row r="10">
@@ -26314,10 +26314,10 @@
         <v>64980.41945326157</v>
       </c>
       <c r="C2" t="n">
-        <v>82104.1769864283</v>
+        <v>82104.17698642834</v>
       </c>
       <c r="D2" t="n">
-        <v>82104.17698642828</v>
+        <v>82104.17698642831</v>
       </c>
       <c r="E2" t="n">
         <v>80656.06283861228</v>
@@ -26329,28 +26329,28 @@
         <v>80714.6599690006</v>
       </c>
       <c r="H2" t="n">
-        <v>80714.65996900064</v>
+        <v>80714.65996900061</v>
       </c>
       <c r="I2" t="n">
-        <v>80714.6599690006</v>
+        <v>80714.65996900063</v>
       </c>
       <c r="J2" t="n">
-        <v>82104.17698642841</v>
+        <v>82104.1769864284</v>
       </c>
       <c r="K2" t="n">
+        <v>82104.1769864284</v>
+      </c>
+      <c r="L2" t="n">
         <v>82104.17698642839</v>
       </c>
-      <c r="L2" t="n">
-        <v>82104.17698642841</v>
-      </c>
       <c r="M2" t="n">
-        <v>82104.17698642834</v>
+        <v>82104.17698642836</v>
       </c>
       <c r="N2" t="n">
-        <v>82104.17698642837</v>
+        <v>82104.17698642836</v>
       </c>
       <c r="O2" t="n">
-        <v>82104.17698642837</v>
+        <v>82104.17698642836</v>
       </c>
       <c r="P2" t="n">
         <v>82104.17698642837</v>
@@ -26375,10 +26375,10 @@
         <v>936391.4095185974</v>
       </c>
       <c r="F3" t="n">
-        <v>7852.63761494999</v>
+        <v>7852.637614951069</v>
       </c>
       <c r="G3" t="n">
-        <v>1.060680460795993e-09</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>195850.9371862248</v>
+        <v>195850.9371862247</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363181</v>
+        <v>19427.71799363173</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>103327.7358282894</v>
+        <v>103327.7358282893</v>
       </c>
       <c r="C4" t="n">
         <v>201064.5059277315</v>
@@ -26424,40 +26424,40 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>5759.93888671817</v>
+        <v>5759.938886718168</v>
       </c>
       <c r="F4" t="n">
-        <v>5067.592601670527</v>
+        <v>5067.592601670414</v>
       </c>
       <c r="G4" t="n">
-        <v>5067.592601670434</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="H4" t="n">
-        <v>5067.592601670438</v>
+        <v>5067.592601670441</v>
       </c>
       <c r="I4" t="n">
         <v>5067.592601670437</v>
       </c>
       <c r="J4" t="n">
-        <v>13058.45186476393</v>
+        <v>13058.4518647639</v>
       </c>
       <c r="K4" t="n">
+        <v>13058.45186476388</v>
+      </c>
+      <c r="L4" t="n">
+        <v>13058.4518647639</v>
+      </c>
+      <c r="M4" t="n">
         <v>13058.45186476391</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>13058.45186476391</v>
-      </c>
-      <c r="M4" t="n">
-        <v>13058.45186476394</v>
-      </c>
-      <c r="N4" t="n">
-        <v>13058.45186476392</v>
       </c>
       <c r="O4" t="n">
         <v>13058.45186476392</v>
       </c>
       <c r="P4" t="n">
-        <v>13058.45186476391</v>
+        <v>13058.4518647639</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26470,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>100905.9587784758</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-711174.2736529819</v>
+        <v>-711602.3675913109</v>
       </c>
       <c r="C6" t="n">
-        <v>-201819.4070047127</v>
+        <v>-201819.4070047126</v>
       </c>
       <c r="D6" t="n">
         <v>-201819.4070047127</v>
       </c>
       <c r="E6" t="n">
-        <v>-962401.2443451792</v>
+        <v>-962437.4471988745</v>
       </c>
       <c r="F6" t="n">
-        <v>-33328.10007152699</v>
+        <v>-33362.8379969637</v>
       </c>
       <c r="G6" t="n">
-        <v>-25475.46245657801</v>
+        <v>-25510.20038201264</v>
       </c>
       <c r="H6" t="n">
-        <v>-25475.46245657688</v>
+        <v>-25510.20038201264</v>
       </c>
       <c r="I6" t="n">
-        <v>-25475.46245657695</v>
+        <v>-25510.20038201261</v>
       </c>
       <c r="J6" t="n">
-        <v>-229969.3279184757</v>
+        <v>-229969.3279184756</v>
       </c>
       <c r="K6" t="n">
-        <v>-34118.39073225092</v>
+        <v>-34118.39073225087</v>
       </c>
       <c r="L6" t="n">
         <v>-34118.3907322509</v>
       </c>
       <c r="M6" t="n">
-        <v>-158326.9014403095</v>
+        <v>-158326.9014403094</v>
       </c>
       <c r="N6" t="n">
-        <v>-34118.39073225089</v>
+        <v>-34118.39073225095</v>
       </c>
       <c r="O6" t="n">
-        <v>-53546.10872588275</v>
+        <v>-53546.10872588269</v>
       </c>
       <c r="P6" t="n">
         <v>-34118.39073225093</v>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="3">
@@ -26738,16 +26738,16 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1358.041048716386</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26969,10 +26969,10 @@
         <v>980.2973844992989</v>
       </c>
       <c r="F3" t="n">
-        <v>9.934451625287011</v>
+        <v>9.934451625288375</v>
       </c>
       <c r="G3" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450927</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450927</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450927</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>290.4186084086092</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27388,7 +27388,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>142.663450815486</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,10 +27546,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>77.56228551625912</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27594,13 +27594,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>55.1831336534259</v>
+        <v>167.819698156939</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>45.74236672775064</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>169.1258655427212</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27853,10 +27853,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>157.9126385807741</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>53.08875922892014</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>8.202333179718494</v>
+        <v>111.6366418859134</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,25 +28053,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="35">
@@ -30040,10 +30040,10 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V35" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="38">
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="41">
@@ -30463,16 +30463,16 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
         <v>5.115907697472721e-13</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31847,13 +31847,13 @@
         <v>634.2436048745724</v>
       </c>
       <c r="M12" t="n">
-        <v>363.178673896306</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>759.7214730927637</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>363.6408844187321</v>
       </c>
       <c r="P12" t="n">
         <v>557.7961431982453</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348428</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135336</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.015579806723</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663279</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.544175081757</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162554</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175667</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159417</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.586862646002</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.82044992365</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669218</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043723</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292899</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651526</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078742</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659447</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521098</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420753</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422581</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473067</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862115</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>405.637736314577</v>
       </c>
       <c r="O15" t="n">
-        <v>370.9642309107771</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214693</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485287</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742434</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275953</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189901</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121568</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869269</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.405663379626</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355175</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.751989058815</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392042</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106785</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920054</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417312</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515926</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670477</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532763</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099321</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.134554967246722</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N18" t="n">
-        <v>556.7959610899857</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>302.967544750805</v>
       </c>
       <c r="N21" t="n">
-        <v>510.8679233250717</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,7 +32786,7 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32795,13 +32795,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>491.597732526532</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>339.9772972286967</v>
       </c>
       <c r="N27" t="n">
-        <v>556.7959610899863</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>377.6350660745949</v>
       </c>
       <c r="N30" t="n">
-        <v>510.8679233250724</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33500,37 +33500,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O33" t="n">
-        <v>301.6445156724565</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33743,13 +33743,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>575.5951359912046</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>606.5820696732821</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,22 +34211,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>575.5951359912046</v>
       </c>
       <c r="N42" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,22 +34448,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>575.5951359912044</v>
+        <v>575.5951359912046</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35413,7 +35413,7 @@
         <v>474.3741250380625</v>
       </c>
       <c r="L11" t="n">
-        <v>675.5219512913658</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M11" t="n">
         <v>728.287436302058</v>
@@ -35431,7 +35431,7 @@
         <v>367.2547334404111</v>
       </c>
       <c r="R11" t="n">
-        <v>127.3573607845841</v>
+        <v>177.1017560095107</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,13 +35495,13 @@
         <v>495.6892250946982</v>
       </c>
       <c r="M12" t="n">
-        <v>221.0446399742877</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>628.3797610094305</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>221.0446399742877</v>
       </c>
       <c r="P12" t="n">
         <v>423.8217357839151</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317085</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396481</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367764</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462681</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790294</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193509</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243153</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683804</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924723</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902401</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754086</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678992</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674326</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641931</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="O15" t="n">
-        <v>228.3679864663327</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071391</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625072</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295322</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096347</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191312</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010448</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899071</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060451</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066247</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N18" t="n">
-        <v>425.4542490066523</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>160.8335108287866</v>
       </c>
       <c r="N21" t="n">
-        <v>379.5262112417385</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36443,13 +36443,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>349.0014880820875</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>197.8432633066783</v>
       </c>
       <c r="N27" t="n">
-        <v>425.454249006653</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36759,13 +36759,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N28" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P28" t="n">
         <v>319.9164207986647</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525766</v>
       </c>
       <c r="N30" t="n">
-        <v>379.5262112417391</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36996,13 +36996,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O33" t="n">
-        <v>159.048271228012</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,19 +37227,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37391,13 +37391,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>433.4611020691863</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>463.9858252288377</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37698,19 +37698,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O40" t="n">
         <v>397.5465471980851</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,19 +37862,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>433.4611020691863</v>
       </c>
       <c r="N42" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,19 +38099,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>433.4611020691861</v>
+        <v>433.4611020691863</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
